--- a/public/reportTemplates/month2carbone.xlsx
+++ b/public/reportTemplates/month2carbone.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowHeight="17655"/>
   </bookViews>
@@ -1175,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1246,34 +1246,34 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1283,8 +1283,18 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
-    <row r="5" ht="18" spans="1:13">
+    <row r="5" ht="18.75" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1334,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1351,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
